--- a/documentación/necesidades.xlsx
+++ b/documentación/necesidades.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="funcional" sheetId="1" r:id="rId1"/>
     <sheet name="no funcional" sheetId="2" r:id="rId2"/>
-    <sheet name="otros" sheetId="3" r:id="rId3"/>
+    <sheet name="tareas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="lista">funcional!$G$4:$G$5</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>número</t>
   </si>
@@ -119,9 +119,6 @@
     <t>anotaciones</t>
   </si>
   <si>
-    <t>otros</t>
-  </si>
-  <si>
     <t>ventana de registros productos</t>
   </si>
   <si>
@@ -315,6 +312,27 @@
   </si>
   <si>
     <t xml:space="preserve">RECURSOS, HUMANOS </t>
+  </si>
+  <si>
+    <t>implantación de calendario</t>
+  </si>
+  <si>
+    <t>tener en cuenta la fecha límite de entrega de proyecto y a partir de ahí marcar las demás</t>
+  </si>
+  <si>
+    <t>separación del calendario por fases</t>
+  </si>
+  <si>
+    <t>definir claramente las fases que debe tener el calendario, Por ejemplo: pimera fase--&gt; recopilación de información, segunda fase --&gt; puesta en común de todas las ideas, etc.</t>
+  </si>
+  <si>
+    <t>tareas</t>
+  </si>
+  <si>
+    <t>marcar unos objetivos mínimos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener en cuenta la funcinalidad mínima indispensable para que funciona la aplicación </t>
   </si>
 </sst>
 </file>
@@ -444,6 +462,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,9 +473,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,7 +887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,25 +902,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -916,7 +934,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
@@ -936,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -951,16 +969,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
@@ -978,14 +996,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -993,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -1017,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1035,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -1047,16 +1065,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1071,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
@@ -1086,10 +1104,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -1104,10 +1122,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1122,13 +1140,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1143,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -1155,16 +1173,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1179,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -1194,10 +1212,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>26</v>
@@ -1212,13 +1230,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -1230,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -1248,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1266,13 +1284,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1284,13 +1302,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -1302,10 +1320,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1318,13 +1336,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -1336,13 +1354,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1354,13 +1372,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1494,20 +1512,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1534,10 +1552,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1549,10 +1567,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1564,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,13 +1599,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1598,13 +1616,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>87</v>
+      <c r="E8" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1615,13 +1633,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1632,10 +1650,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -1806,7 +1824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,20 +1837,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1859,10 +1877,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1874,10 +1892,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1889,44 +1907,56 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
